--- a/biology/Zoologie/Asthenosoma_ijimai/Asthenosoma_ijimai.xlsx
+++ b/biology/Zoologie/Asthenosoma_ijimai/Asthenosoma_ijimai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asthenosoma ijimai est une espèce d'échinoderme de la famille des Echinothuriidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son diamètre maximale est de 25 cm. Il ressemble beaucoup à A. varium, mais possède des sutures radiaires marquées d'une ligne rouge, et a des piquants plus clairement répartis en rectangles longitudinaux. Ceux-ci sont clairs (souvent du blanc au bleu violacé), et le test rouge pâle. Les piquants primaires de la face orale ne sont pas annelés, et les tubercules primaires sont arrangés d'une manière unique.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans les eaux tropicales de la zone centrale Indo-Pacifique[2], principalement le Pacifique ouest du Japon aux Moluques et peut-être jusqu'en Australie orientale, entre 20 et 300 m de profondeur[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans les eaux tropicales de la zone centrale Indo-Pacifique, principalement le Pacifique ouest du Japon aux Moluques et peut-être jusqu'en Australie orientale, entre 20 et 300 m de profondeur. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit d'algues, qu'il broute sur le fond[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit d'algues, qu'il broute sur le fond.
 </t>
         </is>
       </c>
